--- a/confugracion_2.xlsx
+++ b/confugracion_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yucaret\website\wharsapp_vivelunahuana-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yucaret\website\whatsapp_gepeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380D0879-D2CF-411B-BD33-5C08FB315CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB541A9-E457-44BD-840C-51902C21B930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30A89E59-9E8C-49A0-A3FE-B35B413BD910}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>descripción del curso</t>
   </si>
@@ -273,6 +273,9 @@
     <t>Tu primera respuesta debe ser un buen saludo al cliente.</t>
   </si>
   <si>
+    <t>Si el cliente elije los catas, le muestras el detalle de las catas según la fecha disponible. Si te pregunta cosas no referidas a los servicios le dices que no esta programdo para responder esas preguntas.</t>
+  </si>
+  <si>
     <t>Éres un chatbot, Tu nombre completo es Catalina pero te llamamos Cata. Tienes que ser amable y tu objetivo principal es brindar información de lo que ofrecemos y confirmar el interés de compra del cliente.</t>
   </si>
   <si>
@@ -282,10 +285,13 @@
     <t>Déspues de saludarlo explicale de nuestros servicios.</t>
   </si>
   <si>
-    <t>Si el cliente elije las catas, le muestras el detalle de las catas según la fecha disponible.</t>
-  </si>
-  <si>
-    <t>luego de eligir los servicios y luego de su respuesta de afirmación, pides sus datos como nombre completo,  correo electrónica y teléfono celular, agradeces por su información e interes y le indicas que en breve el gerente de Perfect Blend, Victor, se comunicará con él o ella; y finalmente le dices que confirmo su reserva con la palabra "conforme".</t>
+    <t>finalizacion de conversacion</t>
+  </si>
+  <si>
+    <t>Esperas hasta que el cliente te diga los servicios que desea, luego de que te haya dicho los servicios que requiere haces un resumen de lo pedido y luego le pides sus datos personales que son nombre completo,  correo electrónica y teléfono celular y le indicas que en breve el gerente de Perfect Blend, Victor, se comunicará con él.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luego de que te entregue sus datos personales le pides que escriba la palabra "conforme". </t>
   </si>
 </sst>
 </file>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780C2D23-8D0A-4195-AFA0-F6362CAD05F1}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,15 +732,15 @@
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="5" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -768,8 +774,8 @@
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>6</v>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>6</v>
@@ -777,8 +783,11 @@
       <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -795,82 +804,88 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I9" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I13" s="1"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
